--- a/docs/dates/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
+++ b/docs/dates/dt/Mail2UPN_Migrationsuebersicht_UniBE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365.sharepoint.com/sites/ID-Mail2UPN/Freigegebene Dokumente/Migrationen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857601B8-DAFB-4552-BE98-387B4F332BF0}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{F666B896-236D-4007-90DF-EF40164E4F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00CA408-4DE1-4519-B54B-A0E758375985}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{04BB4B5D-ED8C-450E-A019-A49FAF05B40D}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>W43</t>
   </si>
   <si>
-    <t>ZB</t>
-  </si>
-  <si>
     <t>W44</t>
   </si>
   <si>
@@ -141,25 +138,168 @@
     <t>SOWI</t>
   </si>
   <si>
-    <t>ZB: BT</t>
-  </si>
-  <si>
-    <t>ZB: FIN, FK, FUG, GS, LEHRE, REKTORAT</t>
-  </si>
-  <si>
-    <t>ZB: ENTWICKLUNG, LERNENDE, PERS, QUALITAET, RECHTSDIENST</t>
-  </si>
-  <si>
-    <t>ZB: BAU, CG, DAF, ILUB, ZIB</t>
-  </si>
-  <si>
-    <t>ZB: KOMMUNIKATION, RESEARCH, SAE, VD, VSL</t>
-  </si>
-  <si>
-    <t>ZB: INT, ULS, ZUW</t>
-  </si>
-  <si>
     <t>Vormerkungen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZB:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ENTWICKLUNG, LERNENDE, PERS, QUALITAET, RECHTSDIENST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZB:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FIN, FK, FUG, GS, LEHRE, REKTORAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZB:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZB:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BAU, CG, DAF, ILUB, ZIB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZB:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KOMMUNIKATION, RESEARCH, SAE, VD, VSL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZB:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INT, ULS, ZUW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZB:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nachmigrationen</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -170,7 +310,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +320,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,12 +353,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -528,7 +677,7 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,6 +686,7 @@
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="3"/>
     <col min="4" max="4" width="55.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -553,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -567,7 +717,7 @@
         <v>0.5625</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,7 +739,7 @@
         <v>0.5625</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -646,7 +796,7 @@
         <v>44357.5625</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,8 +852,8 @@
       <c r="B24" s="4">
         <v>44378.5625</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
+      <c r="D24" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,7 +1164,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94" s="4">
         <v>44502</v>
@@ -1032,7 +1182,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B98" s="4">
         <v>44509</v>
@@ -1050,7 +1200,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102" s="4">
         <v>44516</v>
@@ -1068,7 +1218,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B106" s="4">
         <v>44523</v>
@@ -1086,7 +1236,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B110" s="4">
         <v>44530</v>
@@ -1104,7 +1254,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" s="4">
         <v>44537</v>
